--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9863014806502</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H2">
-        <v>2.9863014806502</v>
+        <v>12.866425</v>
       </c>
       <c r="I2">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J2">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.7083971942555</v>
+        <v>0.3374003333333333</v>
       </c>
       <c r="N2">
-        <v>16.7083971942555</v>
+        <v>1.012201</v>
       </c>
       <c r="O2">
-        <v>0.9254059082290516</v>
+        <v>0.01738364872808817</v>
       </c>
       <c r="P2">
-        <v>0.9254059082290516</v>
+        <v>0.01738364872808818</v>
       </c>
       <c r="Q2">
-        <v>49.89631128049685</v>
+        <v>1.447045361269444</v>
       </c>
       <c r="R2">
-        <v>49.89631128049685</v>
+        <v>13.023408251425</v>
       </c>
       <c r="S2">
-        <v>0.1372957534767581</v>
+        <v>0.003465239299013151</v>
       </c>
       <c r="T2">
-        <v>0.1372957534767581</v>
+        <v>0.003465239299013152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9863014806502</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H3">
-        <v>2.9863014806502</v>
+        <v>12.866425</v>
       </c>
       <c r="I3">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J3">
-        <v>0.1483627371036574</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34681192606484</v>
+        <v>16.71131166666667</v>
       </c>
       <c r="N3">
-        <v>1.34681192606484</v>
+        <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.07459409177094839</v>
+        <v>0.8610055862391021</v>
       </c>
       <c r="P3">
-        <v>0.07459409177094839</v>
+        <v>0.8610055862391023</v>
       </c>
       <c r="Q3">
-        <v>4.021986448964779</v>
+        <v>71.67161273693056</v>
       </c>
       <c r="R3">
-        <v>4.021986448964779</v>
+        <v>645.044514632375</v>
       </c>
       <c r="S3">
-        <v>0.01106698362689931</v>
+        <v>0.1716319997472546</v>
       </c>
       <c r="T3">
-        <v>0.01106698362689931</v>
+        <v>0.1716319997472547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1036832092458</v>
+        <v>4.288808333333333</v>
       </c>
       <c r="H4">
-        <v>11.1036832092458</v>
+        <v>12.866425</v>
       </c>
       <c r="I4">
-        <v>0.5516431758581022</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="J4">
-        <v>0.5516431758581022</v>
+        <v>0.1993390083529519</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7083971942555</v>
+        <v>2.360351</v>
       </c>
       <c r="N4">
-        <v>16.7083971942555</v>
+        <v>7.081053000000001</v>
       </c>
       <c r="O4">
-        <v>0.9254059082290516</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="P4">
-        <v>0.9254059082290516</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="Q4">
-        <v>185.5247493792644</v>
+        <v>10.12309303839167</v>
       </c>
       <c r="R4">
-        <v>185.5247493792644</v>
+        <v>91.10783734552501</v>
       </c>
       <c r="S4">
-        <v>0.5104938541733255</v>
+        <v>0.02424176930668412</v>
       </c>
       <c r="T4">
-        <v>0.5104938541733255</v>
+        <v>0.02424176930668413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1036832092458</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H5">
-        <v>11.1036832092458</v>
+        <v>33.315578</v>
       </c>
       <c r="I5">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J5">
-        <v>0.5516431758581022</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.34681192606484</v>
+        <v>0.3374003333333333</v>
       </c>
       <c r="N5">
-        <v>1.34681192606484</v>
+        <v>1.012201</v>
       </c>
       <c r="O5">
-        <v>0.07459409177094839</v>
+        <v>0.01738364872808817</v>
       </c>
       <c r="P5">
-        <v>0.07459409177094839</v>
+        <v>0.01738364872808818</v>
       </c>
       <c r="Q5">
-        <v>14.95457296945816</v>
+        <v>3.746895707464222</v>
       </c>
       <c r="R5">
-        <v>14.95457296945816</v>
+        <v>33.722061367178</v>
       </c>
       <c r="S5">
-        <v>0.0411493216847767</v>
+        <v>0.008972690561281629</v>
       </c>
       <c r="T5">
-        <v>0.0411493216847767</v>
+        <v>0.008972690561281631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0383948409005</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H6">
-        <v>6.0383948409005</v>
+        <v>33.315578</v>
       </c>
       <c r="I6">
-        <v>0.2999940870382403</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J6">
-        <v>0.2999940870382403</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7083971942555</v>
+        <v>16.71131166666667</v>
       </c>
       <c r="N6">
-        <v>16.7083971942555</v>
+        <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.9254059082290516</v>
+        <v>0.8610055862391021</v>
       </c>
       <c r="P6">
-        <v>0.9254059082290516</v>
+        <v>0.8610055862391023</v>
       </c>
       <c r="Q6">
-        <v>100.8918994175088</v>
+        <v>185.5823357710478</v>
       </c>
       <c r="R6">
-        <v>100.8918994175088</v>
+        <v>1670.24102193943</v>
       </c>
       <c r="S6">
-        <v>0.2776163005789679</v>
+        <v>0.4444139902790125</v>
       </c>
       <c r="T6">
-        <v>0.2776163005789679</v>
+        <v>0.4444139902790126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0383948409005</v>
+        <v>11.10519266666667</v>
       </c>
       <c r="H7">
-        <v>6.0383948409005</v>
+        <v>33.315578</v>
       </c>
       <c r="I7">
-        <v>0.2999940870382403</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="J7">
-        <v>0.2999940870382403</v>
+        <v>0.5161569185865866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.34681192606484</v>
+        <v>2.360351</v>
       </c>
       <c r="N7">
-        <v>1.34681192606484</v>
+        <v>7.081053000000001</v>
       </c>
       <c r="O7">
-        <v>0.07459409177094839</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="P7">
-        <v>0.07459409177094839</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="Q7">
-        <v>8.132582186013195</v>
+        <v>26.21215261595934</v>
       </c>
       <c r="R7">
-        <v>8.132582186013195</v>
+        <v>235.909373543634</v>
       </c>
       <c r="S7">
-        <v>0.02237778645927237</v>
+        <v>0.06277023774629245</v>
       </c>
       <c r="T7">
-        <v>0.02237778645927237</v>
+        <v>0.06277023774629246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.121147333333333</v>
+      </c>
+      <c r="H8">
+        <v>18.363442</v>
+      </c>
+      <c r="I8">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="J8">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3374003333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.012201</v>
+      </c>
+      <c r="O8">
+        <v>0.01738364872808817</v>
+      </c>
+      <c r="P8">
+        <v>0.01738364872808818</v>
+      </c>
+      <c r="Q8">
+        <v>2.065277150649111</v>
+      </c>
+      <c r="R8">
+        <v>18.587494355842</v>
+      </c>
+      <c r="S8">
+        <v>0.004945718867793396</v>
+      </c>
+      <c r="T8">
+        <v>0.004945718867793398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.121147333333333</v>
+      </c>
+      <c r="H9">
+        <v>18.363442</v>
+      </c>
+      <c r="I9">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="J9">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.71131166666667</v>
+      </c>
+      <c r="N9">
+        <v>50.133935</v>
+      </c>
+      <c r="O9">
+        <v>0.8610055862391021</v>
+      </c>
+      <c r="P9">
+        <v>0.8610055862391023</v>
+      </c>
+      <c r="Q9">
+        <v>102.2924008449189</v>
+      </c>
+      <c r="R9">
+        <v>920.63160760427</v>
+      </c>
+      <c r="S9">
+        <v>0.244959596212835</v>
+      </c>
+      <c r="T9">
+        <v>0.244959596212835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.121147333333333</v>
+      </c>
+      <c r="H10">
+        <v>18.363442</v>
+      </c>
+      <c r="I10">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="J10">
+        <v>0.2845040730604615</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.360351</v>
+      </c>
+      <c r="N10">
+        <v>7.081053000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1216107650328097</v>
+      </c>
+      <c r="P10">
+        <v>0.1216107650328097</v>
+      </c>
+      <c r="Q10">
+        <v>14.44805622938067</v>
+      </c>
+      <c r="R10">
+        <v>130.032506064426</v>
+      </c>
+      <c r="S10">
+        <v>0.03459875797983309</v>
+      </c>
+      <c r="T10">
+        <v>0.0345987579798331</v>
       </c>
     </row>
   </sheetData>
